--- a/muller/muller_output/B1_muller_try1.mean.xlsx
+++ b/muller/muller_output/B1_muller_try1.mean.xlsx
@@ -14,7 +14,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>genotype-1</t>
+  </si>
+  <si>
+    <t>genotype-2</t>
+  </si>
+  <si>
+    <t>genotype-3</t>
+  </si>
+  <si>
+    <t>genotype-4</t>
+  </si>
+  <si>
+    <t>genotype-5</t>
+  </si>
+  <si>
+    <t>genotype-6</t>
+  </si>
+  <si>
+    <t>genotype-7</t>
+  </si>
+  <si>
+    <t>genotype-8</t>
+  </si>
+  <si>
+    <t>genotype-9</t>
+  </si>
+  <si>
+    <t>genotype-10</t>
+  </si>
+  <si>
+    <t>genotype-11</t>
+  </si>
+  <si>
+    <t>genotype-12</t>
+  </si>
+  <si>
+    <t>genotype-13</t>
+  </si>
+  <si>
+    <t>genotype-14</t>
+  </si>
   <si>
     <t>1</t>
   </si>
@@ -413,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -441,10 +486,13 @@
       <c r="H1" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -467,10 +515,13 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -493,10 +544,13 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -519,10 +573,13 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -545,10 +602,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -571,10 +631,13 @@
       <c r="H6">
         <v>0.103</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -597,10 +660,13 @@
       <c r="H7">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -623,10 +689,13 @@
       <c r="H8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -649,10 +718,13 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -675,10 +747,13 @@
       <c r="H10">
         <v>0.8985000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -701,10 +776,13 @@
       <c r="H11">
         <v>0.8029999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -727,10 +805,13 @@
       <c r="H12">
         <v>0.0615</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -753,10 +834,13 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -779,10 +863,13 @@
       <c r="H14">
         <v>0.078</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -804,6 +891,9 @@
       </c>
       <c r="H15">
         <v>0.2986666666666667</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
